--- a/Avantis Mapping/SPARQL_supertag.xlsx
+++ b/Avantis Mapping/SPARQL_supertag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\medney\Documents\GitHub\TWONTO\Avantis Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEEADAC-649E-4C03-8CA0-030BF5518079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FA7184-BEB1-480E-A943-BBC733B80281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{716C0CF8-2E33-46F2-BE6F-578AC5702A19}"/>
   </bookViews>
@@ -41,47 +41,11 @@
     <t>TWONTO</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#air_duct_segment</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#instrument_gauge_or_display</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#instrumentation</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#electrical_panel_or_cabinet</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#level_switch</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#instrument_transmitter</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#classifier</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#pressure_transmitter</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#flow_switch</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#level_transmitter</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#breaker</t>
-  </si>
-  <si>
     <t>SWG_x000D_
 CB_x000D_
 LB_x000D_
 TB_x000D_
 LVS</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#pressure_switch</t>
   </si>
   <si>
     <t>PDSH_x000D_
@@ -101,18 +65,12 @@
 SW</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#position_switch</t>
-  </si>
-  <si>
     <t>ZSH_x000D_
 ZSLH_x000D_
 ZSL</t>
   </si>
   <si>
     <t>SIT</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#temperature_switch</t>
   </si>
   <si>
     <t>TSH_x000D_
@@ -129,9 +87,6 @@
     <t>LDIT</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#polymer_preparation_system</t>
-  </si>
-  <si>
     <t>DPU</t>
   </si>
   <si>
@@ -139,14 +94,8 @@
 FSL</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#speed_switch</t>
-  </si>
-  <si>
     <t>SSH_x000D_
 SSL</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#electrical_current_sensing_instrument</t>
   </si>
   <si>
     <t>EIT_x000D_
@@ -163,9 +112,6 @@
 TI</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#vibration_sensor_element</t>
-  </si>
-  <si>
     <t>VSH_x000D_
 VSL</t>
   </si>
@@ -173,9 +119,6 @@
     <t>CYC</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#weight_switch</t>
-  </si>
-  <si>
     <t>WSH_x000D_
 WSL</t>
   </si>
@@ -186,20 +129,77 @@
     <t>MCC</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#digester_tank</t>
-  </si>
-  <si>
     <t>PD_x000D_
 SD</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#lighting_unit</t>
-  </si>
-  <si>
     <t>LTX</t>
   </si>
   <si>
     <t>Super_Tag</t>
+  </si>
+  <si>
+    <t>breaker</t>
+  </si>
+  <si>
+    <t>pressure_switch</t>
+  </si>
+  <si>
+    <t>pressure_transmitter</t>
+  </si>
+  <si>
+    <t>instrumentation</t>
+  </si>
+  <si>
+    <t>position_switch</t>
+  </si>
+  <si>
+    <t>instrument_transmitter</t>
+  </si>
+  <si>
+    <t>temperature_switch</t>
+  </si>
+  <si>
+    <t>level_switch</t>
+  </si>
+  <si>
+    <t>level_transmitter</t>
+  </si>
+  <si>
+    <t>polymer_preparation_system</t>
+  </si>
+  <si>
+    <t>flow_switch</t>
+  </si>
+  <si>
+    <t>speed_switch</t>
+  </si>
+  <si>
+    <t>electrical_current_sensing_instrument</t>
+  </si>
+  <si>
+    <t>instrument_gauge_or_display</t>
+  </si>
+  <si>
+    <t>vibration_sensor_element</t>
+  </si>
+  <si>
+    <t>classifier</t>
+  </si>
+  <si>
+    <t>weight_switch</t>
+  </si>
+  <si>
+    <t>air_duct_segment</t>
+  </si>
+  <si>
+    <t>electrical_panel_or_cabinet</t>
+  </si>
+  <si>
+    <t>digester_tank</t>
+  </si>
+  <si>
+    <t>lighting_unit</t>
   </si>
 </sst>
 </file>
@@ -625,7 +625,7 @@
   <dimension ref="A2:B118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B23"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -639,175 +639,175 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">

--- a/Avantis Mapping/SPARQL_supertag.xlsx
+++ b/Avantis Mapping/SPARQL_supertag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\medney\Documents\GitHub\TWONTO\Avantis Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FA7184-BEB1-480E-A943-BBC733B80281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA129A6-F19E-4050-AC01-F34B3009BA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{716C0CF8-2E33-46F2-BE6F-578AC5702A19}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{716C0CF8-2E33-46F2-BE6F-578AC5702A19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,103 +36,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
   <si>
     <t>TWONTO</t>
   </si>
   <si>
-    <t>SWG_x000D_
-CB_x000D_
-LB_x000D_
-TB_x000D_
-LVS</t>
-  </si>
-  <si>
-    <t>PDSH_x000D_
-PDSHH_x000D_
-PSH_x000D_
-PSHH_x000D_
-PSL_x000D_
-PSLL</t>
-  </si>
-  <si>
-    <t>PDIT_x000D_
-PDT</t>
-  </si>
-  <si>
-    <t>ANL_x000D_
-METR_x000D_
-SW</t>
-  </si>
-  <si>
-    <t>ZSH_x000D_
-ZSLH_x000D_
-ZSL</t>
-  </si>
-  <si>
     <t>SIT</t>
   </si>
   <si>
-    <t>TSH_x000D_
-TSL</t>
-  </si>
-  <si>
-    <t>LSH_x000D_
-LSHH_x000D_
-LSL_x000D_
-LSLL_x000D_
-LSM</t>
-  </si>
-  <si>
     <t>LDIT</t>
   </si>
   <si>
     <t>DPU</t>
   </si>
   <si>
-    <t>FSH_x000D_
-FSL</t>
-  </si>
-  <si>
-    <t>SSH_x000D_
-SSL</t>
-  </si>
-  <si>
-    <t>EIT_x000D_
-IRT_x000D_
-IIT_x000D_
-JRT_x000D_
-JIT</t>
-  </si>
-  <si>
-    <t>FI_x000D_
-LI_x000D_
-PI_x000D_
-SI_x000D_
-TI</t>
-  </si>
-  <si>
-    <t>VSH_x000D_
-VSL</t>
-  </si>
-  <si>
     <t>CYC</t>
   </si>
   <si>
-    <t>WSH_x000D_
-WSL</t>
-  </si>
-  <si>
     <t>SL</t>
   </si>
   <si>
-    <t>MCC</t>
-  </si>
-  <si>
-    <t>PD_x000D_
-SD</t>
-  </si>
-  <si>
     <t>LTX</t>
   </si>
   <si>
@@ -142,71 +65,206 @@
     <t>breaker</t>
   </si>
   <si>
-    <t>pressure_switch</t>
-  </si>
-  <si>
-    <t>pressure_transmitter</t>
-  </si>
-  <si>
-    <t>instrumentation</t>
-  </si>
-  <si>
-    <t>position_switch</t>
-  </si>
-  <si>
-    <t>instrument_transmitter</t>
-  </si>
-  <si>
-    <t>temperature_switch</t>
-  </si>
-  <si>
-    <t>level_switch</t>
-  </si>
-  <si>
-    <t>level_transmitter</t>
-  </si>
-  <si>
-    <t>polymer_preparation_system</t>
-  </si>
-  <si>
-    <t>flow_switch</t>
-  </si>
-  <si>
-    <t>speed_switch</t>
-  </si>
-  <si>
-    <t>electrical_current_sensing_instrument</t>
-  </si>
-  <si>
-    <t>instrument_gauge_or_display</t>
-  </si>
-  <si>
-    <t>vibration_sensor_element</t>
-  </si>
-  <si>
     <t>classifier</t>
   </si>
   <si>
-    <t>weight_switch</t>
-  </si>
-  <si>
-    <t>air_duct_segment</t>
-  </si>
-  <si>
-    <t>electrical_panel_or_cabinet</t>
-  </si>
-  <si>
-    <t>digester_tank</t>
-  </si>
-  <si>
-    <t>lighting_unit</t>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX tw: &lt;http://www.toronto.ca/TWONTO#&gt;
+SELECT (STR(?label) as ?TWONTO) (STR(?object) as ?Avantis)
+WHERE { 
+    ?entityIRI tw:is_superclass_of_tag_code ?object ;
+              rdfs:label ?label .
+}</t>
+  </si>
+  <si>
+    <t>instrument gauge or display</t>
+  </si>
+  <si>
+    <t>LI</t>
+  </si>
+  <si>
+    <t>level switch</t>
+  </si>
+  <si>
+    <t>LSH</t>
+  </si>
+  <si>
+    <t>LSL</t>
+  </si>
+  <si>
+    <t>electrical current sensing instrument</t>
+  </si>
+  <si>
+    <t>EIT</t>
+  </si>
+  <si>
+    <t>LSM</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>level transmitter</t>
+  </si>
+  <si>
+    <t>LSHH</t>
+  </si>
+  <si>
+    <t>vibration sensor element</t>
+  </si>
+  <si>
+    <t>VSH</t>
+  </si>
+  <si>
+    <t>LVS</t>
+  </si>
+  <si>
+    <t>pressure transmitter</t>
+  </si>
+  <si>
+    <t>PDIT</t>
+  </si>
+  <si>
+    <t>position switch</t>
+  </si>
+  <si>
+    <t>ZSH</t>
+  </si>
+  <si>
+    <t>ZSL</t>
+  </si>
+  <si>
+    <t>pressure switch</t>
+  </si>
+  <si>
+    <t>PDSHH</t>
+  </si>
+  <si>
+    <t>VSL</t>
+  </si>
+  <si>
+    <t>PDSH</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>JRT</t>
+  </si>
+  <si>
+    <t>lighting unit</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>ZSLH</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>JIT</t>
+  </si>
+  <si>
+    <t>PSHH</t>
+  </si>
+  <si>
+    <t>digester tank</t>
+  </si>
+  <si>
+    <t>PD</t>
+  </si>
+  <si>
+    <t>air duct segment</t>
+  </si>
+  <si>
+    <t>weight switch</t>
+  </si>
+  <si>
+    <t>WSH</t>
+  </si>
+  <si>
+    <t>WSL</t>
+  </si>
+  <si>
+    <t>speed switch</t>
+  </si>
+  <si>
+    <t>SSL</t>
+  </si>
+  <si>
+    <t>SSH</t>
+  </si>
+  <si>
+    <t>LSLL</t>
+  </si>
+  <si>
+    <t>IRT</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>IIT</t>
+  </si>
+  <si>
+    <t>flow switch</t>
+  </si>
+  <si>
+    <t>FSH</t>
+  </si>
+  <si>
+    <t>FSL</t>
+  </si>
+  <si>
+    <t>SWG</t>
+  </si>
+  <si>
+    <t>instrument transmitter</t>
+  </si>
+  <si>
+    <t>temperature switch</t>
+  </si>
+  <si>
+    <t>TSH</t>
+  </si>
+  <si>
+    <t>PSL</t>
+  </si>
+  <si>
+    <t>TSL</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>PSH</t>
+  </si>
+  <si>
+    <t>PDT</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>polymer preparation system</t>
+  </si>
+  <si>
+    <t>PSLL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,15 +280,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,12 +292,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF4472C4"/>
         <bgColor rgb="FF4472C4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9E1F2"/>
-        <bgColor rgb="FFD9E1F2"/>
       </patternFill>
     </fill>
   </fills>
@@ -262,14 +307,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -315,8 +356,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95B7462F-2E77-4297-9361-348E17AE61B7}" name="Table1" displayName="Table1" ref="A2:B23" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A2:B23" xr:uid="{95B7462F-2E77-4297-9361-348E17AE61B7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95B7462F-2E77-4297-9361-348E17AE61B7}" name="Table1" displayName="Table1" ref="A2:B53" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A2:B53" xr:uid="{95B7462F-2E77-4297-9361-348E17AE61B7}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{F929C49D-2775-4718-8C6D-B5829C8CADDE}" name="TWONTO"/>
     <tableColumn id="2" xr3:uid="{69FF631B-786D-4A8E-A604-FCCAC8BACC05}" name="Super_Tag"/>
@@ -622,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C799550E-49B1-4512-9CC1-86876BA1337E}">
-  <dimension ref="A2:B118"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -634,211 +675,438 @@
     <col min="2" max="2" width="61.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>43</v>
       </c>
-      <c r="B23" t="s">
-        <v>21</v>
+      <c r="B28" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B31" s="3"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" s="3"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B46" s="3"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B57" s="3"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B62" s="3"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B67" s="3"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B76" s="3"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B87" s="3"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B106" s="3"/>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B118" s="3"/>
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B58" s="2"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B69" s="2"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B88" s="2"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B100" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Avantis Mapping/SPARQL_supertag.xlsx
+++ b/Avantis Mapping/SPARQL_supertag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\medney\Documents\GitHub\TWONTO\Avantis Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA129A6-F19E-4050-AC01-F34B3009BA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE1653C-AA56-45EC-A325-2568C5E10110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{716C0CF8-2E33-46F2-BE6F-578AC5702A19}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{716C0CF8-2E33-46F2-BE6F-578AC5702A19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
   <si>
     <t>TWONTO</t>
   </si>
@@ -60,12 +60,6 @@
   </si>
   <si>
     <t>Super_Tag</t>
-  </si>
-  <si>
-    <t>breaker</t>
-  </si>
-  <si>
-    <t>classifier</t>
   </si>
   <si>
     <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
@@ -80,24 +74,15 @@
 }</t>
   </si>
   <si>
-    <t>instrument gauge or display</t>
-  </si>
-  <si>
     <t>LI</t>
   </si>
   <si>
-    <t>level switch</t>
-  </si>
-  <si>
     <t>LSH</t>
   </si>
   <si>
     <t>LSL</t>
   </si>
   <si>
-    <t>electrical current sensing instrument</t>
-  </si>
-  <si>
     <t>EIT</t>
   </si>
   <si>
@@ -107,39 +92,24 @@
     <t>TI</t>
   </si>
   <si>
-    <t>level transmitter</t>
-  </si>
-  <si>
     <t>LSHH</t>
   </si>
   <si>
-    <t>vibration sensor element</t>
-  </si>
-  <si>
     <t>VSH</t>
   </si>
   <si>
     <t>LVS</t>
   </si>
   <si>
-    <t>pressure transmitter</t>
-  </si>
-  <si>
     <t>PDIT</t>
   </si>
   <si>
-    <t>position switch</t>
-  </si>
-  <si>
     <t>ZSH</t>
   </si>
   <si>
     <t>ZSL</t>
   </si>
   <si>
-    <t>pressure switch</t>
-  </si>
-  <si>
     <t>PDSHH</t>
   </si>
   <si>
@@ -155,9 +125,6 @@
     <t>JRT</t>
   </si>
   <si>
-    <t>lighting unit</t>
-  </si>
-  <si>
     <t>TB</t>
   </si>
   <si>
@@ -176,27 +143,15 @@
     <t>PSHH</t>
   </si>
   <si>
-    <t>digester tank</t>
-  </si>
-  <si>
     <t>PD</t>
   </si>
   <si>
-    <t>air duct segment</t>
-  </si>
-  <si>
-    <t>weight switch</t>
-  </si>
-  <si>
     <t>WSH</t>
   </si>
   <si>
     <t>WSL</t>
   </si>
   <si>
-    <t>speed switch</t>
-  </si>
-  <si>
     <t>SSL</t>
   </si>
   <si>
@@ -215,9 +170,6 @@
     <t>IIT</t>
   </si>
   <si>
-    <t>flow switch</t>
-  </si>
-  <si>
     <t>FSH</t>
   </si>
   <si>
@@ -227,12 +179,6 @@
     <t>SWG</t>
   </si>
   <si>
-    <t>instrument transmitter</t>
-  </si>
-  <si>
-    <t>temperature switch</t>
-  </si>
-  <si>
     <t>TSH</t>
   </si>
   <si>
@@ -254,10 +200,70 @@
     <t>SI</t>
   </si>
   <si>
-    <t>polymer preparation system</t>
-  </si>
-  <si>
     <t>PSLL</t>
+  </si>
+  <si>
+    <t>http://www.toronto.ca/TWONTO#speed_switch</t>
+  </si>
+  <si>
+    <t>http://www.toronto.ca/TWONTO#instrument_gauge_or_display</t>
+  </si>
+  <si>
+    <t>http://www.toronto.ca/TWONTO#electrical_current_sensing_instrument</t>
+  </si>
+  <si>
+    <t>http://www.toronto.ca/TWONTO#pressure_transmitter</t>
+  </si>
+  <si>
+    <t>http://www.toronto.ca/TWONTO#instrument_transmitter</t>
+  </si>
+  <si>
+    <t>http://www.toronto.ca/TWONTO#pressure_switch</t>
+  </si>
+  <si>
+    <t>http://www.toronto.ca/TWONTO#level_transmitter</t>
+  </si>
+  <si>
+    <t>http://www.toronto.ca/TWONTO#polymer_preparation_system</t>
+  </si>
+  <si>
+    <t>http://www.toronto.ca/TWONTO#breaker</t>
+  </si>
+  <si>
+    <t>http://www.toronto.ca/TWONTO#vibration_sensor_element</t>
+  </si>
+  <si>
+    <t>http://www.toronto.ca/TWONTO#motion_sensor_element</t>
+  </si>
+  <si>
+    <t>MSL</t>
+  </si>
+  <si>
+    <t>http://www.toronto.ca/TWONTO#level_switch</t>
+  </si>
+  <si>
+    <t>http://www.toronto.ca/TWONTO#digester_tank</t>
+  </si>
+  <si>
+    <t>http://www.toronto.ca/TWONTO#position_switch</t>
+  </si>
+  <si>
+    <t>http://www.toronto.ca/TWONTO#temperature_switch</t>
+  </si>
+  <si>
+    <t>http://www.toronto.ca/TWONTO#flow_switch</t>
+  </si>
+  <si>
+    <t>http://www.toronto.ca/TWONTO#classifier</t>
+  </si>
+  <si>
+    <t>http://www.toronto.ca/TWONTO#air_duct_segment</t>
+  </si>
+  <si>
+    <t>http://www.toronto.ca/TWONTO#lighting_unit</t>
+  </si>
+  <si>
+    <t>http://www.toronto.ca/TWONTO#weight_switch</t>
   </si>
 </sst>
 </file>
@@ -356,8 +362,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95B7462F-2E77-4297-9361-348E17AE61B7}" name="Table1" displayName="Table1" ref="A2:B53" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A2:B53" xr:uid="{95B7462F-2E77-4297-9361-348E17AE61B7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95B7462F-2E77-4297-9361-348E17AE61B7}" name="Table1" displayName="Table1" ref="A2:B52" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A2:B52" xr:uid="{95B7462F-2E77-4297-9361-348E17AE61B7}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{F929C49D-2775-4718-8C6D-B5829C8CADDE}" name="TWONTO"/>
     <tableColumn id="2" xr3:uid="{69FF631B-786D-4A8E-A604-FCCAC8BACC05}" name="Super_Tag"/>
@@ -663,24 +669,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C799550E-49B1-4512-9CC1-86876BA1337E}">
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -688,425 +694,405 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" t="s">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="B51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>43</v>
-      </c>
-      <c r="B48" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>30</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>25</v>
-      </c>
-      <c r="B50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>69</v>
-      </c>
       <c r="B52" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>30</v>
-      </c>
-      <c r="B53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B58" s="2"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B69" s="2"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B88" s="2"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B100" s="2"/>
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
